--- a/3. CONCAT_Credit_Card_Numbers.xlsx
+++ b/3. CONCAT_Credit_Card_Numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD10E5AB-A1BF-4456-B5BE-CA8DD478592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C815E7-D02A-4169-B8F6-F0602B795DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8DC1FAE-0BA3-4068-AF17-F24561D8983A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8DC1FAE-0BA3-4068-AF17-F24561D8983A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Credit Card Number</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Last 4 digits</t>
+  </si>
+  <si>
+    <t>kkkkkkkkk</t>
   </si>
 </sst>
 </file>
@@ -123,13 +126,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -326,10 +329,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCAF7A7F-4C83-49B7-BA10-891374BD5DBD}" name="Table1" displayName="Table1" ref="B8:G11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCAF7A7F-4C83-49B7-BA10-891374BD5DBD}" name="Table1" displayName="Table1" ref="B8:G11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B8:G11" xr:uid="{CCAF7A7F-4C83-49B7-BA10-891374BD5DBD}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{541108C8-90D3-446E-B0EC-BC236CE1EF5B}" name="Credit Card Number" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{541108C8-90D3-446E-B0EC-BC236CE1EF5B}" name="Credit Card Number" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{E8DE833E-9757-4C6D-9088-BD9BE9D8E4BE}" name="First 4 digits" dataDxfId="4">
       <calculatedColumnFormula>LEFT(Table1[[#This Row],[Credit Card Number]],4)</calculatedColumnFormula>
     </tableColumn>
@@ -667,23 +670,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F002BE85-D2FF-4535-8417-15C99A810EB6}">
-  <dimension ref="B8:G11"/>
+  <dimension ref="B8:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>2548156515427420</v>
       </c>
@@ -728,7 +731,7 @@
         <v>2548-1565-1542-7420</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>6841257400251020</v>
       </c>
@@ -753,7 +756,7 @@
         <v>6841-2574-0025-1020</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>6500419807305060</v>
       </c>
@@ -776,6 +779,11 @@
       <c r="G11" s="2" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[First 4 digits]], "-",Table1[[#This Row],[Second  4 digits]], "-", Table1[[#This Row],[Next four digits]], "-", Table1[[#This Row],[Last 4 digits]])</f>
         <v>6500-4198-0730-5060</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
